--- a/DS-ALGO5/src/test/resources/ExcelData/signInTestData.xlsx
+++ b/DS-ALGO5/src/test/resources/ExcelData/signInTestData.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumal\eclipse-workspace\DS-ALGO5\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ADDC53-148F-4495-82B6-0C0CB63D6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661541BC-CA8B-459B-97FA-39DD80472F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="2" r:id="rId1"/>
-    <sheet name="Python_Code" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Python_Code" sheetId="7" r:id="rId2"/>
+    <sheet name="Python_Code_old2" sheetId="6" r:id="rId3"/>
+    <sheet name="Python_Code_old" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>userName</t>
   </si>
@@ -149,18 +151,20 @@
   </si>
   <si>
     <t>def search(input_list, num):
-	if num in input_list:
-		return 'Element Found'
-	else:
-		return 'Not Found'
-input_array_1 = [12, 23, 45, 67, 6, 90]
-value_1 = 12
-output_1 = search(input_array_1, value_1)
-print (output_1)
-input_array_2 = [12, 23, 45, 67, 6, 90]
-value_2 = 25
-output_2 = search(input_array_2, value_2)
-print (output_2)</t>
+\bif num in input_list:
+	return "Element Found"
+\belse:
+	return "Not Found"
+\ninput_array_1 = [12, 23, 45, 67, 6, 90]
+\nvalue_1 = 12
+\noutput_1 = search(input_array_1, value_1)
+\nprint (output_1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(num in input_list):
+ print("Element Found")
+else:
+ print(""Not Found"")</t>
   </si>
 </sst>
 </file>
@@ -243,11 +247,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -261,21 +266,37 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{AED5E22F-77C1-4B5F-B65D-D3565B4B3D5E}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{69421A4E-AE8E-48E9-9998-F81C29F6D9D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,21 +682,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA81DD2-32BE-416F-831F-0079A3680D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66F964A-AC50-487D-BE65-840F7C169FCD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="129.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B936619-F29C-4871-BF96-D62ACADD4456}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="125.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA81DD2-32BE-416F-831F-0079A3680D98}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="125.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -683,7 +916,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -691,23 +924,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -715,7 +948,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -723,7 +956,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -731,7 +964,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -739,7 +972,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -747,7 +980,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -755,7 +988,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -768,7 +1001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72485724-620E-492E-B166-CC104C674AAC}">
   <dimension ref="A1:B8"/>
   <sheetViews>
